--- a/勝又自作Attended_Framework_拡張v1/Data/サンプルRPAワーク/PARAM/Parameters.xlsx
+++ b/勝又自作Attended_Framework_拡張v1/Data/サンプルRPAワーク/PARAM/Parameters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -38,6 +38,82 @@
   </si>
   <si>
     <t>sample@gmail.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Hello World!　1/3回目</t>
+    <rPh sb="16" eb="18">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Hello World!　2/3回目</t>
+    <rPh sb="16" eb="18">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Hello World!　3/3回目</t>
+    <rPh sb="16" eb="18">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サンプル処理メッセージボックスタイトル</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サンプル処理メッセージボックス出力リスト_01</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サンプル処理メッセージボックス出力リスト_02</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サンプル処理メッセージボックス出力リスト_03</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サンプル処理メッセージ</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サンプルパラメータ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UOCワークフローの例.xaml で使用するサンプルパラメータ。</t>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -383,7 +459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -391,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z985"/>
+  <dimension ref="A1:Z986"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="91.140625" style="2" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" style="2" customWidth="1"/>
@@ -448,6 +524,9 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -456,12 +535,55 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1438,6 +1560,7 @@
     <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
